--- a/PMP认证备考强化记忆手册（基于PMBOK第五版）.xlsx
+++ b/PMP认证备考强化记忆手册（基于PMBOK第五版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="580" windowWidth="23160" windowHeight="13260"/>
+    <workbookView xWindow="360" yWindow="80" windowWidth="23000" windowHeight="14680" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PMBOK2012-全部过程活动" sheetId="14" r:id="rId1"/>
@@ -4118,9 +4118,6 @@
     <t>沟通方法</t>
   </si>
   <si>
-    <t>推式（发email)、拉式(在线课堂、网站）、交互式（开会）</t>
-  </si>
-  <si>
     <t>规划沟通管理、发布信息、管理干系人参与</t>
   </si>
   <si>
@@ -4797,6 +4794,10 @@
   </si>
   <si>
     <t>8.1.2.2 质量成本</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>推式（发email)、拉式(在线课堂、网站）、交互式（开会）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -6364,7 +6365,7 @@
   </sheetPr>
   <dimension ref="A1:M385"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A298" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A213" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
@@ -8278,7 +8279,7 @@
         <v>333</v>
       </c>
       <c r="C185" s="67" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D185" s="68" t="s">
         <v>334</v>
@@ -10251,8 +10252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="B3" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10488,7 +10489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -10832,7 +10833,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -11836,8 +11837,8 @@
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -13125,9 +13126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -14221,19 +14222,19 @@
         <v>1360</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>1361</v>
+        <v>1576</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="91" customFormat="1">
       <c r="A87" s="19" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>1363</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>1364</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
@@ -14242,10 +14243,10 @@
     </row>
     <row r="88" spans="1:4" s="91" customFormat="1">
       <c r="A88" s="129" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>1365</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>1366</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
@@ -14254,10 +14255,10 @@
     </row>
     <row r="89" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A89" s="129" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>1367</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>1368</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="19" t="s">
@@ -14266,10 +14267,10 @@
     </row>
     <row r="90" spans="1:4" s="91" customFormat="1">
       <c r="A90" s="129" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>1369</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>1370</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
@@ -14278,10 +14279,10 @@
     </row>
     <row r="91" spans="1:4" s="91" customFormat="1">
       <c r="A91" s="129" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>1371</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>1372</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
@@ -14290,10 +14291,10 @@
     </row>
     <row r="92" spans="1:4" s="91" customFormat="1">
       <c r="A92" s="129" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B92" s="19" t="s">
         <v>1373</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>1374</v>
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
@@ -14302,10 +14303,10 @@
     </row>
     <row r="93" spans="1:4" s="91" customFormat="1">
       <c r="A93" s="129" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>1375</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>1376</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="19" t="s">
@@ -14314,10 +14315,10 @@
     </row>
     <row r="94" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A94" s="129" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B94" s="19" t="s">
         <v>1377</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>1378</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19" t="s">
@@ -14326,10 +14327,10 @@
     </row>
     <row r="95" spans="1:4" s="91" customFormat="1">
       <c r="A95" s="129" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>1379</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>1380</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
@@ -14338,10 +14339,10 @@
     </row>
     <row r="96" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A96" s="129" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>1381</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>1382</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="19" t="s">
@@ -14350,10 +14351,10 @@
     </row>
     <row r="97" spans="1:4" s="91" customFormat="1">
       <c r="A97" s="129" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>1383</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>1384</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="19" t="s">
@@ -14362,10 +14363,10 @@
     </row>
     <row r="98" spans="1:4" s="91" customFormat="1">
       <c r="A98" s="129" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>1385</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>1386</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="19" t="s">
@@ -14374,10 +14375,10 @@
     </row>
     <row r="99" spans="1:4" s="91" customFormat="1">
       <c r="A99" s="129" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B99" s="19" t="s">
         <v>1387</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>1388</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="19" t="s">
@@ -14386,10 +14387,10 @@
     </row>
     <row r="100" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A100" s="129" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B100" s="19" t="s">
         <v>1389</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>1390</v>
       </c>
       <c r="C100" s="19"/>
       <c r="D100" s="19" t="s">
@@ -14398,13 +14399,13 @@
     </row>
     <row r="101" spans="1:4" s="91" customFormat="1">
       <c r="A101" s="129" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>1391</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="C101" s="19" t="s">
         <v>1392</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>1393</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>931</v>
@@ -14412,10 +14413,10 @@
     </row>
     <row r="102" spans="1:4" s="91" customFormat="1">
       <c r="A102" s="129" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B102" s="19" t="s">
         <v>1394</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>1395</v>
       </c>
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
@@ -14424,10 +14425,10 @@
     </row>
     <row r="103" spans="1:4" s="91" customFormat="1">
       <c r="A103" s="129" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>1396</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>1397</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="19" t="s">
@@ -14436,14 +14437,14 @@
     </row>
     <row r="104" spans="1:4" s="91" customFormat="1">
       <c r="A104" s="129" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>1398</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>1399</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="91" customFormat="1">
@@ -14451,31 +14452,31 @@
         <v>770</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="91" customFormat="1">
       <c r="A106" s="129" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>1402</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>1403</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="91" customFormat="1" ht="52">
       <c r="A107" s="129" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B107" s="19" t="s">
         <v>1404</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>1405</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
@@ -14484,22 +14485,22 @@
     </row>
     <row r="108" spans="1:4" s="91" customFormat="1">
       <c r="A108" s="129" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>1406</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>1407</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="91" customFormat="1">
       <c r="A109" s="129" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>1408</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>1409</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19" t="s">
@@ -14508,10 +14509,10 @@
     </row>
     <row r="110" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A110" s="129" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B110" s="19" t="s">
         <v>1410</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>1411</v>
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
@@ -14520,10 +14521,10 @@
     </row>
     <row r="111" spans="1:4" s="91" customFormat="1">
       <c r="A111" s="129" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B111" s="19" t="s">
         <v>1412</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>1413</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="19" t="s">
@@ -14532,10 +14533,10 @@
     </row>
     <row r="112" spans="1:4" s="91" customFormat="1">
       <c r="A112" s="129" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>1414</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>1415</v>
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="19" t="s">
@@ -14544,10 +14545,10 @@
     </row>
     <row r="113" spans="1:4" s="91" customFormat="1">
       <c r="A113" s="129" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B113" s="19" t="s">
         <v>1416</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>1417</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
@@ -14556,10 +14557,10 @@
     </row>
     <row r="114" spans="1:4" s="91" customFormat="1">
       <c r="A114" s="129" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>1418</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>1419</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19" t="s">
@@ -14568,38 +14569,38 @@
     </row>
     <row r="115" spans="1:4" s="91" customFormat="1">
       <c r="A115" s="129" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B115" s="19" t="s">
         <v>1420</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>1421</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="91" customFormat="1">
       <c r="A116" s="129" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B116" s="19" t="s">
         <v>1423</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>1424</v>
       </c>
       <c r="C116" s="19"/>
       <c r="D116" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="91" customFormat="1">
       <c r="A117" s="129" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B117" s="19" t="s">
         <v>1425</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>1426</v>
       </c>
       <c r="C117" s="19"/>
       <c r="D117" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="91" customFormat="1">
@@ -14607,55 +14608,55 @@
         <v>791</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C118" s="19"/>
       <c r="D118" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="91" customFormat="1">
       <c r="A119" s="129" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B119" s="19" t="s">
         <v>1428</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>1429</v>
       </c>
       <c r="C119" s="19"/>
       <c r="D119" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A120" s="129" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B120" s="19" t="s">
         <v>1430</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>1431</v>
       </c>
       <c r="C120" s="19"/>
       <c r="D120" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A121" s="129" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B121" s="19" t="s">
         <v>1432</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>1433</v>
       </c>
       <c r="C121" s="19"/>
       <c r="D121" s="19" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="129" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B122" s="19" t="s">
         <v>1435</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>1436</v>
       </c>
       <c r="C122" s="19"/>
       <c r="D122" s="19" t="s">
@@ -14664,13 +14665,13 @@
     </row>
     <row r="123" spans="1:4" s="91" customFormat="1">
       <c r="A123" s="129" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B123" s="19" t="s">
         <v>1437</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="C123" s="19" t="s">
         <v>1438</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>1439</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>951</v>
@@ -14678,37 +14679,37 @@
     </row>
     <row r="124" spans="1:4" s="91" customFormat="1">
       <c r="A124" s="129" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B124" s="19" t="s">
         <v>1440</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>1441</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A125" s="19" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B125" s="19" t="s">
         <v>1443</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>1444</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="26">
       <c r="A126" s="129" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B126" s="19" t="s">
         <v>1446</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="C126" s="19" t="s">
         <v>1447</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>1448</v>
       </c>
       <c r="D126" s="19" t="s">
         <v>937</v>
@@ -14716,22 +14717,22 @@
     </row>
     <row r="127" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A127" s="129" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B127" s="19" t="s">
         <v>1449</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>1450</v>
       </c>
       <c r="C127" s="19"/>
       <c r="D127" s="19" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="91" customFormat="1" ht="52">
       <c r="A128" s="129" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>1452</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>1453</v>
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="19" t="s">
@@ -14740,10 +14741,10 @@
     </row>
     <row r="129" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A129" s="129" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B129" s="19" t="s">
         <v>1454</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>1455</v>
       </c>
       <c r="C129" s="19"/>
       <c r="D129" s="19" t="s">
@@ -14752,10 +14753,10 @@
     </row>
     <row r="130" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A130" s="129" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B130" s="19" t="s">
         <v>1456</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>1457</v>
       </c>
       <c r="C130" s="19"/>
       <c r="D130" s="19" t="s">
@@ -14764,10 +14765,10 @@
     </row>
     <row r="131" spans="1:4" s="91" customFormat="1" ht="52">
       <c r="A131" s="129" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B131" s="19" t="s">
         <v>1458</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>1459</v>
       </c>
       <c r="C131" s="19"/>
       <c r="D131" s="19" t="s">
@@ -14776,10 +14777,10 @@
     </row>
     <row r="132" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A132" s="19" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B132" s="19" t="s">
         <v>1460</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>1461</v>
       </c>
       <c r="C132" s="19"/>
       <c r="D132" s="19" t="s">
@@ -14788,10 +14789,10 @@
     </row>
     <row r="133" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A133" s="103" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B133" s="19" t="s">
         <v>1462</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>1463</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19" t="s">
@@ -14800,10 +14801,10 @@
     </row>
     <row r="134" spans="1:4" s="91" customFormat="1" ht="39">
       <c r="A134" s="103" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B134" s="19" t="s">
         <v>1464</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>1465</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
@@ -14812,10 +14813,10 @@
     </row>
     <row r="135" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A135" s="129" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B135" s="19" t="s">
         <v>1466</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>1467</v>
       </c>
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
@@ -14824,10 +14825,10 @@
     </row>
     <row r="136" spans="1:4" s="91" customFormat="1" ht="52">
       <c r="A136" s="103" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B136" s="19" t="s">
         <v>1468</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>1469</v>
       </c>
       <c r="C136" s="19"/>
       <c r="D136" s="19" t="s">
@@ -14836,10 +14837,10 @@
     </row>
     <row r="137" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A137" s="129" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B137" s="19" t="s">
         <v>1470</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>1471</v>
       </c>
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
@@ -14848,10 +14849,10 @@
     </row>
     <row r="138" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A138" s="103" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B138" s="19" t="s">
         <v>1472</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>1473</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19" t="s">
@@ -14860,10 +14861,10 @@
     </row>
     <row r="139" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A139" s="103" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B139" s="19" t="s">
         <v>1474</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>1475</v>
       </c>
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
@@ -14872,10 +14873,10 @@
     </row>
     <row r="140" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A140" s="19" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B140" s="19" t="s">
         <v>1476</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>1477</v>
       </c>
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
@@ -14884,16 +14885,16 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>1478</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>1480</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>1481</v>
       </c>
     </row>
   </sheetData>
@@ -14937,7 +14938,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="108" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B2" s="104" t="s">
         <v>1037</v>
@@ -14948,13 +14949,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="108" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B3" s="104" t="s">
         <v>1077</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14970,7 +14971,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="108" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>1034</v>
@@ -15006,7 +15007,7 @@
         <v>1094</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>1019</v>
@@ -15020,15 +15021,15 @@
         <v>1117</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="55">
       <c r="A10" s="109" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B10" s="106" t="s">
         <v>1488</v>
-      </c>
-      <c r="B10" s="106" t="s">
-        <v>1489</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>1044</v>
@@ -15042,7 +15043,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -15064,7 +15065,7 @@
         <v>1039</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -15105,10 +15106,10 @@
         <v>1143</v>
       </c>
       <c r="B17" s="111" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C17" s="110" t="s">
         <v>1492</v>
-      </c>
-      <c r="C17" s="110" t="s">
-        <v>1493</v>
       </c>
     </row>
   </sheetData>
@@ -15132,7 +15133,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15146,66 +15147,66 @@
         <v>988</v>
       </c>
       <c r="B1" s="116" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="108" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B2" s="107" t="s">
         <v>1495</v>
-      </c>
-      <c r="B2" s="107" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="108" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B3" s="107" t="s">
         <v>1497</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="108" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B4" s="107" t="s">
         <v>1499</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="108" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B5" s="107" t="s">
         <v>1501</v>
-      </c>
-      <c r="B5" s="107" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="108" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B6" s="107" t="s">
         <v>1503</v>
-      </c>
-      <c r="B6" s="107" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="108" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B7" s="107" t="s">
         <v>1505</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="114" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B8" s="107"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="112" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B9" s="115"/>
     </row>
@@ -15227,7 +15228,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15241,7 +15242,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17">
       <c r="A1" s="196" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1" s="197"/>
       <c r="C1" s="197"/>
@@ -15251,244 +15252,244 @@
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="165" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B2" s="164" t="s">
         <v>1144</v>
       </c>
       <c r="C2" s="164" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D2" s="164" t="s">
         <v>1511</v>
       </c>
-      <c r="D2" s="164" t="s">
+      <c r="E2" s="164" t="s">
         <v>1512</v>
       </c>
-      <c r="E2" s="164" t="s">
+      <c r="F2" s="163" t="s">
         <v>1513</v>
-      </c>
-      <c r="F2" s="163" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68">
       <c r="A3" s="170" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B3" s="172" t="s">
         <v>1515</v>
       </c>
-      <c r="B3" s="172" t="s">
+      <c r="C3" s="178" t="s">
         <v>1516</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="D3" s="178" t="s">
         <v>1517</v>
-      </c>
-      <c r="D3" s="178" t="s">
-        <v>1518</v>
       </c>
       <c r="E3" s="178"/>
       <c r="F3" s="177"/>
     </row>
     <row r="4" spans="1:6" ht="68">
       <c r="A4" s="161" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B4" s="171" t="s">
         <v>1519</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="C4" s="176" t="s">
         <v>1520</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="D4" s="176" t="s">
         <v>1521</v>
       </c>
-      <c r="D4" s="176" t="s">
+      <c r="E4" s="176" t="s">
         <v>1522</v>
-      </c>
-      <c r="E4" s="176" t="s">
-        <v>1523</v>
       </c>
       <c r="F4" s="175"/>
     </row>
     <row r="5" spans="1:6" ht="51">
       <c r="A5" s="161" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B5" s="171" t="s">
         <v>1524</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="C5" s="176" t="s">
         <v>1525</v>
       </c>
-      <c r="C5" s="176" t="s">
+      <c r="D5" s="176" t="s">
         <v>1526</v>
-      </c>
-      <c r="D5" s="176" t="s">
-        <v>1527</v>
       </c>
       <c r="E5" s="176"/>
       <c r="F5" s="175"/>
     </row>
     <row r="6" spans="1:6" ht="34">
       <c r="A6" s="182" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B6" s="181" t="s">
         <v>1528</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="C6" s="180" t="s">
         <v>1529</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="D6" s="180" t="s">
         <v>1530</v>
-      </c>
-      <c r="D6" s="180" t="s">
-        <v>1531</v>
       </c>
       <c r="E6" s="180"/>
       <c r="F6" s="179"/>
     </row>
     <row r="7" spans="1:6" ht="68">
       <c r="A7" s="170" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B7" s="169" t="s">
         <v>1532</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="C7" s="178" t="s">
         <v>1533</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="D7" s="178" t="s">
         <v>1534</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="E7" s="178" t="s">
         <v>1535</v>
       </c>
-      <c r="E7" s="178" t="s">
+      <c r="F7" s="168" t="s">
         <v>1536</v>
-      </c>
-      <c r="F7" s="168" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="68">
       <c r="A8" s="161" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B8" s="160" t="s">
         <v>1538</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="C8" s="176" t="s">
         <v>1539</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="D8" s="176" t="s">
         <v>1540</v>
       </c>
-      <c r="D8" s="176" t="s">
+      <c r="E8" s="176" t="s">
         <v>1541</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="F8" s="162" t="s">
         <v>1542</v>
-      </c>
-      <c r="F8" s="162" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68">
       <c r="A9" s="182" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B9" s="184" t="s">
         <v>1544</v>
       </c>
-      <c r="B9" s="184" t="s">
+      <c r="C9" s="180" t="s">
         <v>1545</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="D9" s="180" t="s">
         <v>1546</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="E9" s="180" t="s">
         <v>1547</v>
       </c>
-      <c r="E9" s="180" t="s">
-        <v>1548</v>
-      </c>
       <c r="F9" s="183" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="119">
       <c r="A10" s="170" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B10" s="169" t="s">
         <v>1549</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="C10" s="178" t="s">
         <v>1550</v>
       </c>
-      <c r="C10" s="178" t="s">
+      <c r="D10" s="178" t="s">
         <v>1551</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="E10" s="178" t="s">
         <v>1552</v>
       </c>
-      <c r="E10" s="178" t="s">
+      <c r="F10" s="177" t="s">
         <v>1553</v>
-      </c>
-      <c r="F10" s="177" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="119">
       <c r="A11" s="159" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B11" s="158" t="s">
         <v>1555</v>
       </c>
-      <c r="B11" s="158" t="s">
+      <c r="C11" s="174" t="s">
         <v>1556</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="D11" s="174" t="s">
         <v>1557</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="E11" s="174" t="s">
         <v>1558</v>
       </c>
-      <c r="E11" s="174" t="s">
+      <c r="F11" s="173" t="s">
         <v>1559</v>
-      </c>
-      <c r="F11" s="173" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="221">
       <c r="A12" s="167" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B12" s="166" t="s">
         <v>1561</v>
       </c>
-      <c r="B12" s="166" t="s">
+      <c r="C12" s="174" t="s">
         <v>1562</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="D12" s="174" t="s">
         <v>1563</v>
       </c>
-      <c r="D12" s="174" t="s">
+      <c r="E12" s="174" t="s">
         <v>1564</v>
-      </c>
-      <c r="E12" s="174" t="s">
-        <v>1565</v>
       </c>
       <c r="F12" s="174"/>
     </row>
     <row r="13" spans="1:6" ht="102">
       <c r="A13" s="161" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B13" s="160" t="s">
         <v>1566</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="C13" s="174" t="s">
         <v>1567</v>
       </c>
-      <c r="C13" s="174" t="s">
+      <c r="D13" s="174" t="s">
         <v>1568</v>
       </c>
-      <c r="D13" s="174" t="s">
+      <c r="E13" s="174" t="s">
         <v>1569</v>
-      </c>
-      <c r="E13" s="174" t="s">
-        <v>1570</v>
       </c>
       <c r="F13" s="174"/>
     </row>
     <row r="14" spans="1:6" ht="102">
       <c r="A14" s="159" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B14" s="158" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C14" s="174" t="s">
         <v>1571</v>
       </c>
-      <c r="B14" s="158" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C14" s="174" t="s">
+      <c r="D14" s="174" t="s">
         <v>1572</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="E14" s="174" t="s">
         <v>1573</v>
       </c>
-      <c r="E14" s="174" t="s">
+      <c r="F14" s="174" t="s">
         <v>1574</v>
-      </c>
-      <c r="F14" s="174" t="s">
-        <v>1575</v>
       </c>
     </row>
   </sheetData>

--- a/PMP认证备考强化记忆手册（基于PMBOK第五版）.xlsx
+++ b/PMP认证备考强化记忆手册（基于PMBOK第五版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="80" windowWidth="23000" windowHeight="14680" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="23000" windowHeight="14680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PMBOK2012-全部过程活动" sheetId="14" r:id="rId1"/>
@@ -10252,7 +10252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -13126,8 +13126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
@@ -15228,7 +15228,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/PMP认证备考强化记忆手册（基于PMBOK第五版）.xlsx
+++ b/PMP认证备考强化记忆手册（基于PMBOK第五版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="23000" windowHeight="14680" activeTab="1"/>
+    <workbookView xWindow="1340" yWindow="0" windowWidth="23000" windowHeight="14680" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PMBOK2012-全部过程活动" sheetId="14" r:id="rId1"/>
@@ -3500,9 +3500,6 @@
     <t>项目管理信息系统</t>
   </si>
   <si>
-    <t>配置管理系统</t>
-  </si>
-  <si>
     <t>整个项目管理系统的一个子系统。它由一系列正式的书面程序组成，用于对以下工作提供技术和管理方面的指导与监督：识别并记录产品、成果、服务或部件的功能特征和物理特征；控制对上述特征的任何变更；记录并报告每一项变更及其实施情况；支持对产品、成果或部件的审查，以确保其符合要求。该系统包括文件和跟踪系统，并明确了为核准和控制变更所需的批准层次</t>
   </si>
   <si>
@@ -4290,9 +4287,6 @@
   </si>
   <si>
     <t>作为买方和卖方谈判</t>
-  </si>
-  <si>
-    <t>合同变更控制系统</t>
   </si>
   <si>
     <t>文书工作、跟踪系统、争议解决程序、审批层次</t>
@@ -4800,12 +4794,20 @@
     <t>推式（发email)、拉式(在线课堂、网站）、交互式（开会）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>配置管理系统</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同变更控制系统</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -4903,6 +4905,20 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -5553,12 +5569,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6065,9 +6143,71 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="65">
     <cellStyle name="常规_PMBOK2008-九大知识领域-Excel-20090509" xfId="1"/>
     <cellStyle name="常规_Sheet1" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8279,7 +8419,7 @@
         <v>333</v>
       </c>
       <c r="C185" s="67" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D185" s="68" t="s">
         <v>334</v>
@@ -10252,7 +10392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -13127,8 +13267,8 @@
   <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -13191,10 +13331,10 @@
     </row>
     <row r="5" spans="1:4" s="91" customFormat="1" ht="91">
       <c r="A5" s="129" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>1155</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>1156</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
@@ -13203,7 +13343,7 @@
     </row>
     <row r="6" spans="1:4" s="91" customFormat="1">
       <c r="A6" s="103" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -13211,10 +13351,10 @@
     </row>
     <row r="7" spans="1:4" s="91" customFormat="1" ht="65">
       <c r="A7" s="129" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>1158</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>1159</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
@@ -13223,10 +13363,10 @@
     </row>
     <row r="8" spans="1:4" s="91" customFormat="1">
       <c r="A8" s="103" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>1160</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>1161</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
@@ -13235,10 +13375,10 @@
     </row>
     <row r="9" spans="1:4" s="91" customFormat="1">
       <c r="A9" s="103" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>1162</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>1163</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
@@ -13247,22 +13387,22 @@
     </row>
     <row r="10" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A10" s="103" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>1164</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>1165</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="91" customFormat="1">
       <c r="A11" s="103" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>1167</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>1168</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="s">
@@ -13271,10 +13411,10 @@
     </row>
     <row r="12" spans="1:4" s="91" customFormat="1">
       <c r="A12" s="103" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>1169</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>1170</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
@@ -13283,10 +13423,10 @@
     </row>
     <row r="13" spans="1:4" s="91" customFormat="1">
       <c r="A13" s="103" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>1171</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>1172</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
@@ -13295,10 +13435,10 @@
     </row>
     <row r="14" spans="1:4" s="91" customFormat="1">
       <c r="A14" s="103" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>1173</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>1174</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
@@ -13307,10 +13447,10 @@
     </row>
     <row r="15" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A15" s="103" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>1175</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>1176</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
@@ -13319,13 +13459,13 @@
     </row>
     <row r="16" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A16" s="103" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>1177</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>1178</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>1179</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>829</v>
@@ -13333,13 +13473,13 @@
     </row>
     <row r="17" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A17" s="103" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>1180</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>1181</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>1182</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>829</v>
@@ -13347,13 +13487,13 @@
     </row>
     <row r="18" spans="1:4" s="91" customFormat="1">
       <c r="A18" s="103" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>1183</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>1184</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>1185</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>829</v>
@@ -13361,13 +13501,13 @@
     </row>
     <row r="19" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A19" s="103" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>1186</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>1187</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>1188</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>832</v>
@@ -13375,58 +13515,58 @@
     </row>
     <row r="20" spans="1:4" s="91" customFormat="1">
       <c r="A20" s="129" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>1189</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>1190</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="91" customFormat="1">
       <c r="A21" s="103" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>1192</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>1193</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A22" s="103" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>1195</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>1196</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A23" s="103" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>1198</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>1199</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="91" customFormat="1">
       <c r="A24" s="103" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>1201</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>1202</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19" t="s">
@@ -13435,10 +13575,10 @@
     </row>
     <row r="25" spans="1:4" s="91" customFormat="1">
       <c r="A25" s="129" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>1203</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>1204</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19" t="s">
@@ -13447,10 +13587,10 @@
     </row>
     <row r="26" spans="1:4" s="91" customFormat="1">
       <c r="A26" s="129" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>1205</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>1206</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
@@ -13459,22 +13599,22 @@
     </row>
     <row r="27" spans="1:4" s="91" customFormat="1">
       <c r="A27" s="129" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>1207</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>1208</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="91" customFormat="1">
       <c r="A28" s="129" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>1210</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>1211</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19" t="s">
@@ -13483,92 +13623,92 @@
     </row>
     <row r="29" spans="1:4" s="91" customFormat="1">
       <c r="A29" s="129" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>1212</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>1213</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D29" s="19" t="s">
         <v>1214</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A30" s="129" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>1217</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A31" s="129" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>1219</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>1220</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>1221</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A32" s="129" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>1223</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>1225</v>
-      </c>
       <c r="D32" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="91" customFormat="1">
       <c r="A33" s="129" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>1226</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>1227</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>1228</v>
-      </c>
       <c r="D33" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A34" s="129" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>1229</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>1230</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="D34" s="19" t="s">
         <v>1231</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="91" customFormat="1">
       <c r="A35" s="129" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>1233</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>1234</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19" t="s">
@@ -13577,13 +13717,13 @@
     </row>
     <row r="36" spans="1:4" s="91" customFormat="1">
       <c r="A36" s="129" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>1235</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>1236</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>1237</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>858</v>
@@ -13591,13 +13731,13 @@
     </row>
     <row r="37" spans="1:4" s="91" customFormat="1">
       <c r="A37" s="129" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>1238</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>1239</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>1240</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>858</v>
@@ -13605,66 +13745,66 @@
     </row>
     <row r="38" spans="1:4" s="91" customFormat="1">
       <c r="A38" s="19" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>1241</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>1242</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="19" t="s">
         <v>1243</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="91" customFormat="1">
       <c r="A39" s="19" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>1245</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="C39" s="19" t="s">
         <v>1246</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>1247</v>
-      </c>
       <c r="D39" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A40" s="129" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>1248</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="C40" s="19" t="s">
         <v>1249</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>1250</v>
-      </c>
       <c r="D40" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="91" customFormat="1">
       <c r="A41" s="129" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>1251</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="C41" s="19" t="s">
         <v>1252</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>1253</v>
-      </c>
       <c r="D41" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="91" customFormat="1">
       <c r="A42" s="129" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>1254</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>1255</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19" t="s">
@@ -13673,22 +13813,22 @@
     </row>
     <row r="43" spans="1:4" s="91" customFormat="1">
       <c r="A43" s="129" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>1256</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>1257</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="91" customFormat="1">
       <c r="A44" s="19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>1259</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>1260</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19" t="s">
@@ -13697,10 +13837,10 @@
     </row>
     <row r="45" spans="1:4" s="91" customFormat="1">
       <c r="A45" s="129" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>1261</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>1262</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19" t="s">
@@ -13709,13 +13849,13 @@
     </row>
     <row r="46" spans="1:4" s="91" customFormat="1">
       <c r="A46" s="129" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>1263</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>1264</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>1265</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>871</v>
@@ -13723,10 +13863,10 @@
     </row>
     <row r="47" spans="1:4" s="91" customFormat="1">
       <c r="A47" s="129" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>1266</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>1267</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19" t="s">
@@ -13735,10 +13875,10 @@
     </row>
     <row r="48" spans="1:4" s="91" customFormat="1">
       <c r="A48" s="129" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>1268</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>1269</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
@@ -13747,10 +13887,10 @@
     </row>
     <row r="49" spans="1:4" s="91" customFormat="1">
       <c r="A49" s="129" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>1270</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>1271</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19" t="s">
@@ -13759,10 +13899,10 @@
     </row>
     <row r="50" spans="1:4" s="91" customFormat="1">
       <c r="A50" s="129" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>1272</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>1273</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19" t="s">
@@ -13771,24 +13911,24 @@
     </row>
     <row r="51" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A51" s="129" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>1274</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="C51" s="19" t="s">
         <v>1275</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="D51" s="19" t="s">
         <v>1276</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="91" customFormat="1">
       <c r="A52" s="129" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>1278</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>1279</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
@@ -13797,10 +13937,10 @@
     </row>
     <row r="53" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A53" s="129" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>1280</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>1281</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
@@ -13809,38 +13949,38 @@
     </row>
     <row r="54" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A54" s="129" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>1282</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>1283</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>1284</v>
-      </c>
       <c r="D54" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="91" customFormat="1">
       <c r="A55" s="129" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>1285</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>1286</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>1287</v>
-      </c>
       <c r="D55" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="91" customFormat="1">
       <c r="A56" s="129" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>1288</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>1289</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19" t="s">
@@ -13849,13 +13989,13 @@
     </row>
     <row r="57" spans="1:4" s="91" customFormat="1">
       <c r="A57" s="129" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>1290</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>1291</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>1292</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>1098</v>
@@ -13863,13 +14003,13 @@
     </row>
     <row r="58" spans="1:4" s="91" customFormat="1">
       <c r="A58" s="129" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>1293</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>1294</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>1295</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>1098</v>
@@ -13877,7 +14017,7 @@
     </row>
     <row r="59" spans="1:4" s="91" customFormat="1">
       <c r="A59" s="129" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -13885,13 +14025,13 @@
     </row>
     <row r="60" spans="1:4" s="91" customFormat="1">
       <c r="A60" s="129" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>1297</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>1298</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>1299</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>999</v>
@@ -13899,10 +14039,10 @@
     </row>
     <row r="61" spans="1:4" s="91" customFormat="1">
       <c r="A61" s="129" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>1300</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>1301</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19" t="s">
@@ -13911,13 +14051,13 @@
     </row>
     <row r="62" spans="1:4" s="91" customFormat="1">
       <c r="A62" s="129" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>1302</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>1303</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>1304</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>999</v>
@@ -13925,13 +14065,13 @@
     </row>
     <row r="63" spans="1:4" s="91" customFormat="1">
       <c r="A63" s="129" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>1305</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="C63" s="19" t="s">
         <v>1306</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>1307</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>999</v>
@@ -13939,13 +14079,13 @@
     </row>
     <row r="64" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A64" s="129" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>1308</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="C64" s="19" t="s">
         <v>1309</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>1310</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>999</v>
@@ -13953,10 +14093,10 @@
     </row>
     <row r="65" spans="1:4" s="91" customFormat="1">
       <c r="A65" s="129" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>1311</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>1312</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19" t="s">
@@ -13965,13 +14105,13 @@
     </row>
     <row r="66" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A66" s="129" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>1313</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>1314</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>1315</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>1101</v>
@@ -13979,13 +14119,13 @@
     </row>
     <row r="67" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A67" s="129" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>1316</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>1317</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>1318</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>1101</v>
@@ -13993,10 +14133,10 @@
     </row>
     <row r="68" spans="1:4" s="91" customFormat="1">
       <c r="A68" s="129" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B68" s="19" t="s">
         <v>1319</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>1320</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19" t="s">
@@ -14005,10 +14145,10 @@
     </row>
     <row r="69" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A69" s="129" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>1321</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>1322</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19" t="s">
@@ -14017,10 +14157,10 @@
     </row>
     <row r="70" spans="1:4" s="91" customFormat="1">
       <c r="A70" s="129" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>1323</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>1324</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19" t="s">
@@ -14029,10 +14169,10 @@
     </row>
     <row r="71" spans="1:4" s="91" customFormat="1">
       <c r="A71" s="129" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B71" s="19" t="s">
         <v>1325</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>1326</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
@@ -14041,13 +14181,13 @@
     </row>
     <row r="72" spans="1:4" s="91" customFormat="1">
       <c r="A72" s="129" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B72" s="19" t="s">
         <v>1327</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>1328</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>1329</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>893</v>
@@ -14055,25 +14195,25 @@
     </row>
     <row r="73" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A73" s="129" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B73" s="19" t="s">
         <v>1330</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>1331</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="91" customFormat="1">
       <c r="A74" s="129" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>1333</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>1334</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>1335</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>897</v>
@@ -14081,10 +14221,10 @@
     </row>
     <row r="75" spans="1:4" s="91" customFormat="1">
       <c r="A75" s="129" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>1336</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>1337</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19" t="s">
@@ -14093,10 +14233,10 @@
     </row>
     <row r="76" spans="1:4" s="91" customFormat="1">
       <c r="A76" s="129" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B76" s="19" t="s">
         <v>1338</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>1339</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="19" t="s">
@@ -14105,13 +14245,13 @@
     </row>
     <row r="77" spans="1:4" s="91" customFormat="1">
       <c r="A77" s="129" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>1340</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>1341</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>1342</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>897</v>
@@ -14119,10 +14259,10 @@
     </row>
     <row r="78" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A78" s="129" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>1343</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>1344</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
@@ -14131,10 +14271,10 @@
     </row>
     <row r="79" spans="1:4" s="91" customFormat="1">
       <c r="A79" s="129" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>1345</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>1346</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
@@ -14143,13 +14283,13 @@
     </row>
     <row r="80" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A80" s="129" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>1347</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>1348</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>1349</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>900</v>
@@ -14157,13 +14297,13 @@
     </row>
     <row r="81" spans="1:4" s="91" customFormat="1">
       <c r="A81" s="129" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>1350</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>1351</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>1352</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>900</v>
@@ -14174,7 +14314,7 @@
         <v>1114</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
@@ -14183,10 +14323,10 @@
     </row>
     <row r="83" spans="1:4" s="91" customFormat="1">
       <c r="A83" s="129" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>1354</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>1355</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
@@ -14195,10 +14335,10 @@
     </row>
     <row r="84" spans="1:4" s="91" customFormat="1">
       <c r="A84" s="129" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>1356</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>1357</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
@@ -14207,10 +14347,10 @@
     </row>
     <row r="85" spans="1:4" s="91" customFormat="1">
       <c r="A85" s="129" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>1358</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>1359</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19" t="s">
@@ -14219,22 +14359,22 @@
     </row>
     <row r="86" spans="1:4" s="91" customFormat="1">
       <c r="A86" s="129" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="91" customFormat="1">
       <c r="A87" s="19" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>1362</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>1363</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
@@ -14243,10 +14383,10 @@
     </row>
     <row r="88" spans="1:4" s="91" customFormat="1">
       <c r="A88" s="129" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>1364</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>1365</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
@@ -14255,10 +14395,10 @@
     </row>
     <row r="89" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A89" s="129" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>1366</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>1367</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="19" t="s">
@@ -14267,10 +14407,10 @@
     </row>
     <row r="90" spans="1:4" s="91" customFormat="1">
       <c r="A90" s="129" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>1368</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>1369</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
@@ -14279,10 +14419,10 @@
     </row>
     <row r="91" spans="1:4" s="91" customFormat="1">
       <c r="A91" s="129" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>1370</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>1371</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
@@ -14291,10 +14431,10 @@
     </row>
     <row r="92" spans="1:4" s="91" customFormat="1">
       <c r="A92" s="129" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B92" s="19" t="s">
         <v>1372</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>1373</v>
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
@@ -14303,10 +14443,10 @@
     </row>
     <row r="93" spans="1:4" s="91" customFormat="1">
       <c r="A93" s="129" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>1374</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>1375</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="19" t="s">
@@ -14315,10 +14455,10 @@
     </row>
     <row r="94" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A94" s="129" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B94" s="19" t="s">
         <v>1376</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>1377</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19" t="s">
@@ -14327,10 +14467,10 @@
     </row>
     <row r="95" spans="1:4" s="91" customFormat="1">
       <c r="A95" s="129" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>1378</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>1379</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
@@ -14339,10 +14479,10 @@
     </row>
     <row r="96" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A96" s="129" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>1380</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>1381</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="19" t="s">
@@ -14351,10 +14491,10 @@
     </row>
     <row r="97" spans="1:4" s="91" customFormat="1">
       <c r="A97" s="129" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>1382</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>1383</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="19" t="s">
@@ -14363,10 +14503,10 @@
     </row>
     <row r="98" spans="1:4" s="91" customFormat="1">
       <c r="A98" s="129" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>1384</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>1385</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="19" t="s">
@@ -14375,10 +14515,10 @@
     </row>
     <row r="99" spans="1:4" s="91" customFormat="1">
       <c r="A99" s="129" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B99" s="19" t="s">
         <v>1386</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>1387</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="19" t="s">
@@ -14387,10 +14527,10 @@
     </row>
     <row r="100" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A100" s="129" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B100" s="19" t="s">
         <v>1388</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>1389</v>
       </c>
       <c r="C100" s="19"/>
       <c r="D100" s="19" t="s">
@@ -14399,13 +14539,13 @@
     </row>
     <row r="101" spans="1:4" s="91" customFormat="1">
       <c r="A101" s="129" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>1390</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="C101" s="19" t="s">
         <v>1391</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>1392</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>931</v>
@@ -14413,10 +14553,10 @@
     </row>
     <row r="102" spans="1:4" s="91" customFormat="1">
       <c r="A102" s="129" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B102" s="19" t="s">
         <v>1393</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>1394</v>
       </c>
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
@@ -14425,10 +14565,10 @@
     </row>
     <row r="103" spans="1:4" s="91" customFormat="1">
       <c r="A103" s="129" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>1395</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>1396</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="19" t="s">
@@ -14437,14 +14577,14 @@
     </row>
     <row r="104" spans="1:4" s="91" customFormat="1">
       <c r="A104" s="129" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>1397</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>1398</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="91" customFormat="1">
@@ -14452,31 +14592,31 @@
         <v>770</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="91" customFormat="1">
       <c r="A106" s="129" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>1401</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>1402</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="91" customFormat="1" ht="52">
       <c r="A107" s="129" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B107" s="19" t="s">
         <v>1403</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>1404</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
@@ -14485,22 +14625,22 @@
     </row>
     <row r="108" spans="1:4" s="91" customFormat="1">
       <c r="A108" s="129" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>1405</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>1406</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="91" customFormat="1">
       <c r="A109" s="129" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>1407</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>1408</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19" t="s">
@@ -14509,10 +14649,10 @@
     </row>
     <row r="110" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A110" s="129" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B110" s="19" t="s">
         <v>1409</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>1410</v>
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
@@ -14521,10 +14661,10 @@
     </row>
     <row r="111" spans="1:4" s="91" customFormat="1">
       <c r="A111" s="129" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B111" s="19" t="s">
         <v>1411</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>1412</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="19" t="s">
@@ -14533,10 +14673,10 @@
     </row>
     <row r="112" spans="1:4" s="91" customFormat="1">
       <c r="A112" s="129" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>1413</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>1414</v>
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="19" t="s">
@@ -14545,10 +14685,10 @@
     </row>
     <row r="113" spans="1:4" s="91" customFormat="1">
       <c r="A113" s="129" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B113" s="19" t="s">
         <v>1415</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>1416</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
@@ -14557,10 +14697,10 @@
     </row>
     <row r="114" spans="1:4" s="91" customFormat="1">
       <c r="A114" s="129" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>1417</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>1418</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19" t="s">
@@ -14569,38 +14709,38 @@
     </row>
     <row r="115" spans="1:4" s="91" customFormat="1">
       <c r="A115" s="129" t="s">
-        <v>1419</v>
+        <v>1576</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="91" customFormat="1">
       <c r="A116" s="129" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C116" s="19"/>
       <c r="D116" s="19" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="91" customFormat="1">
       <c r="A117" s="129" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C117" s="19"/>
       <c r="D117" s="19" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="91" customFormat="1">
@@ -14608,55 +14748,55 @@
         <v>791</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C118" s="19"/>
       <c r="D118" s="19" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="91" customFormat="1">
       <c r="A119" s="129" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C119" s="19"/>
       <c r="D119" s="19" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A120" s="129" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C120" s="19"/>
       <c r="D120" s="19" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A121" s="129" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C121" s="19"/>
       <c r="D121" s="19" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="129" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C122" s="19"/>
       <c r="D122" s="19" t="s">
@@ -14665,13 +14805,13 @@
     </row>
     <row r="123" spans="1:4" s="91" customFormat="1">
       <c r="A123" s="129" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>1436</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>1438</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>951</v>
@@ -14679,37 +14819,37 @@
     </row>
     <row r="124" spans="1:4" s="91" customFormat="1">
       <c r="A124" s="129" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A125" s="19" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="26">
       <c r="A126" s="129" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C126" s="19" t="s">
         <v>1445</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>1447</v>
       </c>
       <c r="D126" s="19" t="s">
         <v>937</v>
@@ -14717,22 +14857,22 @@
     </row>
     <row r="127" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A127" s="129" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C127" s="19"/>
       <c r="D127" s="19" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="91" customFormat="1" ht="52">
       <c r="A128" s="129" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="19" t="s">
@@ -14741,10 +14881,10 @@
     </row>
     <row r="129" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A129" s="129" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C129" s="19"/>
       <c r="D129" s="19" t="s">
@@ -14753,10 +14893,10 @@
     </row>
     <row r="130" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A130" s="129" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C130" s="19"/>
       <c r="D130" s="19" t="s">
@@ -14765,10 +14905,10 @@
     </row>
     <row r="131" spans="1:4" s="91" customFormat="1" ht="52">
       <c r="A131" s="129" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C131" s="19"/>
       <c r="D131" s="19" t="s">
@@ -14777,10 +14917,10 @@
     </row>
     <row r="132" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A132" s="19" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C132" s="19"/>
       <c r="D132" s="19" t="s">
@@ -14789,10 +14929,10 @@
     </row>
     <row r="133" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A133" s="103" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19" t="s">
@@ -14801,10 +14941,10 @@
     </row>
     <row r="134" spans="1:4" s="91" customFormat="1" ht="39">
       <c r="A134" s="103" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
@@ -14813,10 +14953,10 @@
     </row>
     <row r="135" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A135" s="129" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
@@ -14825,10 +14965,10 @@
     </row>
     <row r="136" spans="1:4" s="91" customFormat="1" ht="52">
       <c r="A136" s="103" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C136" s="19"/>
       <c r="D136" s="19" t="s">
@@ -14837,10 +14977,10 @@
     </row>
     <row r="137" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A137" s="129" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
@@ -14849,10 +14989,10 @@
     </row>
     <row r="138" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A138" s="103" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19" t="s">
@@ -14861,10 +15001,10 @@
     </row>
     <row r="139" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A139" s="103" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
@@ -14873,10 +15013,10 @@
     </row>
     <row r="140" spans="1:4" s="91" customFormat="1" ht="26">
       <c r="A140" s="19" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
@@ -14885,16 +15025,16 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>1477</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>1478</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -14938,7 +15078,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="108" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B2" s="104" t="s">
         <v>1037</v>
@@ -14949,13 +15089,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="108" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B3" s="104" t="s">
         <v>1077</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14971,7 +15111,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="108" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>1034</v>
@@ -15007,7 +15147,7 @@
         <v>1094</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>1019</v>
@@ -15021,15 +15161,15 @@
         <v>1117</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="55">
       <c r="A10" s="109" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>1044</v>
@@ -15043,7 +15183,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -15065,7 +15205,7 @@
         <v>1039</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -15106,10 +15246,10 @@
         <v>1143</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C17" s="110" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
   </sheetData>
@@ -15147,66 +15287,66 @@
         <v>988</v>
       </c>
       <c r="B1" s="116" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="108" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="108" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="108" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="108" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="108" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="108" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="114" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B8" s="107"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="112" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B9" s="115"/>
     </row>
@@ -15227,8 +15367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15242,7 +15382,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17">
       <c r="A1" s="196" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B1" s="197"/>
       <c r="C1" s="197"/>
@@ -15252,244 +15392,244 @@
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="165" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B2" s="164" t="s">
         <v>1144</v>
       </c>
       <c r="C2" s="164" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D2" s="164" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E2" s="164" t="s">
         <v>1510</v>
       </c>
-      <c r="D2" s="164" t="s">
+      <c r="F2" s="163" t="s">
         <v>1511</v>
-      </c>
-      <c r="E2" s="164" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F2" s="163" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68">
       <c r="A3" s="170" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B3" s="172" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C3" s="178" t="s">
         <v>1514</v>
       </c>
-      <c r="B3" s="172" t="s">
+      <c r="D3" s="178" t="s">
         <v>1515</v>
-      </c>
-      <c r="C3" s="178" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D3" s="178" t="s">
-        <v>1517</v>
       </c>
       <c r="E3" s="178"/>
       <c r="F3" s="177"/>
     </row>
     <row r="4" spans="1:6" ht="68">
       <c r="A4" s="161" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B4" s="171" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C4" s="176" t="s">
         <v>1518</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="D4" s="176" t="s">
         <v>1519</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="E4" s="176" t="s">
         <v>1520</v>
-      </c>
-      <c r="D4" s="176" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E4" s="176" t="s">
-        <v>1522</v>
       </c>
       <c r="F4" s="175"/>
     </row>
     <row r="5" spans="1:6" ht="51">
       <c r="A5" s="161" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B5" s="171" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C5" s="176" t="s">
         <v>1523</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="D5" s="176" t="s">
         <v>1524</v>
-      </c>
-      <c r="C5" s="176" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D5" s="176" t="s">
-        <v>1526</v>
       </c>
       <c r="E5" s="176"/>
       <c r="F5" s="175"/>
     </row>
     <row r="6" spans="1:6" ht="34">
       <c r="A6" s="182" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B6" s="181" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C6" s="180" t="s">
         <v>1527</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="D6" s="180" t="s">
         <v>1528</v>
-      </c>
-      <c r="C6" s="180" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D6" s="180" t="s">
-        <v>1530</v>
       </c>
       <c r="E6" s="180"/>
       <c r="F6" s="179"/>
     </row>
     <row r="7" spans="1:6" ht="68">
       <c r="A7" s="170" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C7" s="178" t="s">
         <v>1531</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="D7" s="178" t="s">
         <v>1532</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="E7" s="178" t="s">
         <v>1533</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="F7" s="168" t="s">
         <v>1534</v>
-      </c>
-      <c r="E7" s="178" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F7" s="168" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="68">
       <c r="A8" s="161" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B8" s="160" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C8" s="176" t="s">
         <v>1537</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="D8" s="176" t="s">
         <v>1538</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="E8" s="176" t="s">
         <v>1539</v>
       </c>
-      <c r="D8" s="176" t="s">
+      <c r="F8" s="162" t="s">
         <v>1540</v>
-      </c>
-      <c r="E8" s="176" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F8" s="162" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68">
       <c r="A9" s="182" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B9" s="184" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C9" s="180" t="s">
         <v>1543</v>
       </c>
-      <c r="B9" s="184" t="s">
+      <c r="D9" s="180" t="s">
         <v>1544</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="E9" s="180" t="s">
         <v>1545</v>
       </c>
-      <c r="D9" s="180" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E9" s="180" t="s">
-        <v>1547</v>
-      </c>
       <c r="F9" s="183" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="119">
       <c r="A10" s="170" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B10" s="169" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C10" s="178" t="s">
         <v>1548</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="D10" s="178" t="s">
         <v>1549</v>
       </c>
-      <c r="C10" s="178" t="s">
+      <c r="E10" s="178" t="s">
         <v>1550</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="F10" s="177" t="s">
         <v>1551</v>
-      </c>
-      <c r="E10" s="178" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F10" s="177" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="119">
       <c r="A11" s="159" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B11" s="158" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C11" s="174" t="s">
         <v>1554</v>
       </c>
-      <c r="B11" s="158" t="s">
+      <c r="D11" s="174" t="s">
         <v>1555</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="E11" s="174" t="s">
         <v>1556</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="F11" s="173" t="s">
         <v>1557</v>
-      </c>
-      <c r="E11" s="174" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F11" s="173" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="221">
       <c r="A12" s="167" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B12" s="166" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C12" s="174" t="s">
         <v>1560</v>
       </c>
-      <c r="B12" s="166" t="s">
+      <c r="D12" s="174" t="s">
         <v>1561</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="E12" s="174" t="s">
         <v>1562</v>
-      </c>
-      <c r="D12" s="174" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E12" s="174" t="s">
-        <v>1564</v>
       </c>
       <c r="F12" s="174"/>
     </row>
     <row r="13" spans="1:6" ht="102">
       <c r="A13" s="161" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B13" s="160" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C13" s="174" t="s">
         <v>1565</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="D13" s="174" t="s">
         <v>1566</v>
       </c>
-      <c r="C13" s="174" t="s">
+      <c r="E13" s="174" t="s">
         <v>1567</v>
-      </c>
-      <c r="D13" s="174" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E13" s="174" t="s">
-        <v>1569</v>
       </c>
       <c r="F13" s="174"/>
     </row>
     <row r="14" spans="1:6" ht="102">
       <c r="A14" s="159" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B14" s="158" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C14" s="174" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D14" s="174" t="s">
         <v>1570</v>
       </c>
-      <c r="B14" s="158" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C14" s="174" t="s">
+      <c r="E14" s="174" t="s">
         <v>1571</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="F14" s="174" t="s">
         <v>1572</v>
-      </c>
-      <c r="E14" s="174" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F14" s="174" t="s">
-        <v>1574</v>
       </c>
     </row>
   </sheetData>
